--- a/excel/output2.xlsx
+++ b/excel/output2.xlsx
@@ -38,10 +38,10 @@
     <t>₹1,999</t>
   </si>
   <si>
-    <t>₹8,499</t>
+    <t>₹4,199</t>
   </si>
   <si>
-    <t>₹4,199</t>
+    <t>₹8,499</t>
   </si>
   <si>
     <t>₹5,499</t>

--- a/excel/output2.xlsx
+++ b/excel/output2.xlsx
@@ -14,16 +14,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
+    <t>Bamboo Stepkhuta Bamboo Bookshelf In Polished Finish</t>
+  </si>
+  <si>
+    <t>₹4,999</t>
+  </si>
+  <si>
     <t>Dolah Bamboo Bookshelf In Polished Finish</t>
   </si>
   <si>
     <t>₹6,999</t>
-  </si>
-  <si>
-    <t>Bamboo Stepkhuta Bamboo Bookshelf In Polished Finish</t>
-  </si>
-  <si>
-    <t>₹4,999</t>
   </si>
   <si>
     <t>₹6,499</t>
@@ -38,10 +38,10 @@
     <t>₹1,999</t>
   </si>
   <si>
-    <t>₹4,199</t>
+    <t>₹8,499</t>
   </si>
   <si>
-    <t>₹8,499</t>
+    <t>₹4,199</t>
   </si>
   <si>
     <t>₹5,499</t>
@@ -113,7 +113,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>4</v>
@@ -121,7 +121,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>5</v>
@@ -137,7 +137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>8</v>
@@ -145,7 +145,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>9</v>
@@ -153,7 +153,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>10</v>

--- a/excel/output2.xlsx
+++ b/excel/output2.xlsx
@@ -12,39 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>Bamboo Stepkhuta Bamboo Bookshelf In Polished Finish</t>
+    <t>Slumppy Solid Wood Bookshelf In Melamine Finish</t>
   </si>
   <si>
-    <t>₹4,999</t>
+    <t>₹8,580</t>
   </si>
   <si>
-    <t>Dolah Bamboo Bookshelf In Polished Finish</t>
+    <t>Cd Solid Wood Bookshelf In Melamine Finish</t>
   </si>
   <si>
-    <t>₹6,999</t>
+    <t>₹8,840</t>
   </si>
   <si>
-    <t>₹6,499</t>
+    <t>White Solid Wood Bookshelf In White Finish</t>
   </si>
   <si>
-    <t>₹4,499</t>
+    <t>₹7,800</t>
   </si>
   <si>
-    <t>Dolong Bamboo Bookshelf In Polished Finish</t>
+    <t>Brown Solid Wood Bookshelf In Black Finish</t>
   </si>
   <si>
-    <t>₹1,999</t>
+    <t>₹7,523</t>
   </si>
   <si>
-    <t>₹8,499</t>
+    <t>Ladwing Solid Wood Bookshelf In Melamine Finish</t>
   </si>
   <si>
-    <t>₹4,199</t>
-  </si>
-  <si>
-    <t>₹5,499</t>
+    <t>₹10,270</t>
   </si>
 </sst>
 </file>
@@ -89,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -113,15 +110,15 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>5</v>
@@ -129,7 +126,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
@@ -137,26 +134,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s" s="0">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
